--- a/Test Cases/Nithya/Test Case- Storemenu.xlsx
+++ b/Test Cases/Nithya/Test Case- Storemenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Cases\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7BD3C-049A-4AE7-BD12-FE5C6880DFD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8AB37-88EC-47DC-9B77-8AD465A70E72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="472">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1458,6 +1458,124 @@
   </si>
   <si>
     <t>Click on  save&gt;&gt;Click on close</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_060</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Utilities&gt;&gt;Damage Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Entry page should be displayed </t>
+  </si>
+  <si>
+    <t>Select data from the following list and enter Quantity
+1.Catagory
+2.Item
+3.Batch</t>
+  </si>
+  <si>
+    <t>Data should be saved</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to handle damage entry</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_061</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to check All stores</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Utilities&gt;&gt;Stock Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock checking page should be displayed </t>
+  </si>
+  <si>
+    <t>User should be able to Click the following fields and the data should be displayed according to the selection</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to check All Pharmacy</t>
+  </si>
+  <si>
+    <t>Click on the following Fields under All Pharmacy
+1.Minus stock
+2.MRP&lt;=Pur Rate
+3.MRP=0
+4.Pur Rate=0</t>
+  </si>
+  <si>
+    <t>Click on the following Fields under All stores
+1.Minus stock
+2.MRP&lt;=Pur Rate
+3.MRP=0
+4.Pur Rate=0</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to Prepare purchase order</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Utilities&gt;&gt;Purchase order preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase order preparation page should be displayed </t>
+  </si>
+  <si>
+    <t>Select data from the following dropdown list
+1.Re-Order Type
+2.Re-Order Calculation</t>
+  </si>
+  <si>
+    <t>Select date from the datepicker&gt;&gt;Select Re-Order Items Only&gt;&gt;Click On List&gt;&gt;Click on close</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_062</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_063</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_064</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Utilities&gt;&gt;User Store Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Store mapping page should be displayed </t>
+  </si>
+  <si>
+    <t>Select user from the dropdown list&gt;&gt;Select data from mark store for user</t>
+  </si>
+  <si>
+    <t>Click Add store to List&gt;&gt;Click on Save</t>
+  </si>
+  <si>
+    <t>Data should be added to the table and data saved message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_STR_TC_065</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able Search pending PO datewise</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Utilities&gt;&gt;Pending PO Date Wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending PO date wise page should be displayed </t>
+  </si>
+  <si>
+    <t>Select From and To date from the date picker&gt;&gt;Click on Preview</t>
+  </si>
+  <si>
+    <t>Page should be displayed with data</t>
+  </si>
+  <si>
+    <t>Click on selected data&gt;&gt;Select Columns&gt;&gt;Select Data groping by from the dropdown list</t>
+  </si>
+  <si>
+    <t>Click on Apply</t>
   </si>
 </sst>
 </file>
@@ -1643,12 +1761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1657,6 +1769,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1976,8 +2094,8 @@
   <dimension ref="A1:R722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F518" sqref="F518"/>
+      <pane ySplit="1" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G560" sqref="G560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,14 +2151,14 @@
       <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="Q1" s="25" t="s">
+      <c r="O1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2074,7 +2192,7 @@
       </c>
       <c r="O2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>12</v>
@@ -6023,7 +6141,7 @@
       <c r="H289" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="I289" s="26"/>
+      <c r="I289" s="24"/>
       <c r="K289" s="4"/>
     </row>
     <row r="290" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6110,7 +6228,7 @@
       <c r="G296" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H296" s="28" t="s">
+      <c r="H296" s="26" t="s">
         <v>305</v>
       </c>
       <c r="K296" s="4"/>
@@ -6238,7 +6356,7 @@
       <c r="G306" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H306" s="28" t="s">
+      <c r="H306" s="26" t="s">
         <v>305</v>
       </c>
       <c r="K306" s="4"/>
@@ -6382,7 +6500,7 @@
       <c r="G317" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H317" s="28" t="s">
+      <c r="H317" s="26" t="s">
         <v>305</v>
       </c>
       <c r="K317" s="4"/>
@@ -6525,7 +6643,7 @@
       <c r="G328" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H328" s="28" t="s">
+      <c r="H328" s="26" t="s">
         <v>305</v>
       </c>
       <c r="K328" s="4"/>
@@ -6668,7 +6786,7 @@
       <c r="G339" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H339" s="28" t="s">
+      <c r="H339" s="26" t="s">
         <v>305</v>
       </c>
       <c r="K339" s="4"/>
@@ -6812,7 +6930,7 @@
       <c r="G350" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="H350" s="28"/>
+      <c r="H350" s="26"/>
       <c r="K350" s="4"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -6926,7 +7044,7 @@
       <c r="G359" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="H359" s="28"/>
+      <c r="H359" s="26"/>
       <c r="K359" s="4"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -7040,7 +7158,7 @@
       <c r="G368" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="H368" s="28" t="s">
+      <c r="H368" s="26" t="s">
         <v>302</v>
       </c>
       <c r="K368" s="4"/>
@@ -7156,7 +7274,7 @@
       <c r="G377" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H377" s="28" t="s">
+      <c r="H377" s="26" t="s">
         <v>309</v>
       </c>
       <c r="K377" s="4"/>
@@ -7287,7 +7405,7 @@
       <c r="G387" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H387" s="28" t="s">
+      <c r="H387" s="26" t="s">
         <v>309</v>
       </c>
       <c r="K387" s="4"/>
@@ -7302,7 +7420,7 @@
       <c r="G388" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="H388" s="28" t="s">
+      <c r="H388" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K388" s="4"/>
@@ -7317,7 +7435,7 @@
       <c r="G389" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H389" s="28" t="s">
+      <c r="H389" s="26" t="s">
         <v>317</v>
       </c>
       <c r="K389" s="4"/>
@@ -7433,7 +7551,7 @@
       <c r="G398" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H398" s="28" t="s">
+      <c r="H398" s="26" t="s">
         <v>309</v>
       </c>
       <c r="K398" s="4"/>
@@ -7448,7 +7566,7 @@
       <c r="G399" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="H399" s="28" t="s">
+      <c r="H399" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K399" s="4"/>
@@ -7463,7 +7581,7 @@
       <c r="G400" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="H400" s="28" t="s">
+      <c r="H400" s="26" t="s">
         <v>317</v>
       </c>
       <c r="K400" s="4"/>
@@ -8949,7 +9067,7 @@
       <c r="J512" s="4"/>
       <c r="K512" s="4"/>
     </row>
-    <row r="513" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E513" s="5">
         <v>1</v>
       </c>
@@ -8962,7 +9080,7 @@
       <c r="J513" s="4"/>
       <c r="K513" s="4"/>
     </row>
-    <row r="514" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E514" s="5">
         <v>2</v>
       </c>
@@ -8975,7 +9093,7 @@
       <c r="J514" s="4"/>
       <c r="K514" s="4"/>
     </row>
-    <row r="515" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E515" s="5">
         <v>3</v>
       </c>
@@ -8988,7 +9106,7 @@
       <c r="J515" s="4"/>
       <c r="K515" s="4"/>
     </row>
-    <row r="516" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="E516" s="5">
         <v>4</v>
       </c>
@@ -9001,7 +9119,7 @@
       <c r="J516" s="4"/>
       <c r="K516" s="4"/>
     </row>
-    <row r="517" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="E517" s="5">
         <v>5</v>
       </c>
@@ -9011,13 +9129,13 @@
       <c r="G517" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="H517" s="27" t="s">
+      <c r="H517" s="25" t="s">
         <v>435</v>
       </c>
       <c r="J517" s="4"/>
       <c r="K517" s="4"/>
     </row>
-    <row r="518" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E518" s="5">
         <v>6</v>
       </c>
@@ -9028,177 +9146,578 @@
       <c r="J518" s="4"/>
       <c r="K518" s="4"/>
     </row>
-    <row r="519" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J519" s="4"/>
       <c r="K519" s="4"/>
     </row>
-    <row r="520" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A520" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B520" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D520" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F520" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G520" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H520" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="J520" s="4"/>
       <c r="K520" s="4"/>
     </row>
-    <row r="521" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E521" s="5">
+        <v>1</v>
+      </c>
+      <c r="F521" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G521" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="J521" s="4"/>
       <c r="K521" s="4"/>
     </row>
-    <row r="522" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E522" s="5">
+        <v>2</v>
+      </c>
+      <c r="F522" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G522" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J522" s="4"/>
       <c r="K522" s="4"/>
     </row>
-    <row r="523" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E523" s="5">
+        <v>3</v>
+      </c>
+      <c r="F523" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G523" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="J523" s="4"/>
       <c r="K523" s="4"/>
     </row>
-    <row r="524" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E524" s="5">
+        <v>4</v>
+      </c>
+      <c r="F524" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="G524" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="H524" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="J524" s="4"/>
       <c r="K524" s="4"/>
     </row>
-    <row r="525" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E525" s="5">
+        <v>5</v>
+      </c>
+      <c r="F525" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G525" s="12" t="s">
+        <v>441</v>
+      </c>
       <c r="J525" s="4"/>
       <c r="K525" s="4"/>
     </row>
-    <row r="526" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A526" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B526" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D526" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F526" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G526" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H526" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="J526" s="4"/>
       <c r="K526" s="4"/>
     </row>
-    <row r="527" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="H527" s="13"/>
+    <row r="527" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E527" s="5">
+        <v>1</v>
+      </c>
+      <c r="F527" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G527" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="J527" s="4"/>
       <c r="K527" s="4"/>
     </row>
-    <row r="528" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="H528" s="16"/>
+    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E528" s="5">
+        <v>2</v>
+      </c>
+      <c r="F528" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G528" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J528" s="4"/>
       <c r="K528" s="4"/>
     </row>
-    <row r="529" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E529" s="5">
+        <v>3</v>
+      </c>
+      <c r="F529" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G529" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="J529" s="4"/>
       <c r="K529" s="4"/>
     </row>
-    <row r="530" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E530" s="5">
+        <v>4</v>
+      </c>
+      <c r="F530" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="G530" s="12" t="s">
+        <v>447</v>
+      </c>
       <c r="J530" s="4"/>
       <c r="K530" s="4"/>
     </row>
-    <row r="531" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E531" s="5">
+        <v>5</v>
+      </c>
+      <c r="F531" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G531" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J531" s="4"/>
       <c r="K531" s="4"/>
     </row>
-    <row r="532" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J532" s="4"/>
       <c r="K532" s="4"/>
     </row>
-    <row r="533" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A533" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B533" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D533" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F533" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G533" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H533" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="J533" s="4"/>
       <c r="K533" s="4"/>
     </row>
-    <row r="534" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E534" s="5">
+        <v>1</v>
+      </c>
+      <c r="F534" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G534" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="J534" s="4"/>
       <c r="K534" s="4"/>
     </row>
-    <row r="535" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E535" s="5">
+        <v>2</v>
+      </c>
+      <c r="F535" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G535" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J535" s="4"/>
       <c r="K535" s="4"/>
     </row>
-    <row r="536" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E536" s="5">
+        <v>3</v>
+      </c>
+      <c r="F536" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G536" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="J536" s="4"/>
       <c r="K536" s="4"/>
     </row>
-    <row r="537" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E537" s="5">
+        <v>4</v>
+      </c>
+      <c r="F537" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G537" s="12" t="s">
+        <v>447</v>
+      </c>
       <c r="J537" s="4"/>
       <c r="K537" s="4"/>
     </row>
-    <row r="538" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E538" s="5">
+        <v>5</v>
+      </c>
+      <c r="F538" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G538" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J538" s="4"/>
       <c r="K538" s="4"/>
     </row>
-    <row r="539" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J539" s="4"/>
       <c r="K539" s="4"/>
     </row>
-    <row r="540" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H540" s="13"/>
+    <row r="540" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A540" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B540" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D540" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="F540" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G540" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H540" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="J540" s="4"/>
       <c r="K540" s="4"/>
     </row>
-    <row r="541" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H541" s="16"/>
+    <row r="541" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E541" s="5">
+        <v>1</v>
+      </c>
+      <c r="F541" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G541" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="J541" s="4"/>
       <c r="K541" s="4"/>
     </row>
-    <row r="542" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E542" s="5">
+        <v>2</v>
+      </c>
+      <c r="F542" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G542" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J542" s="4"/>
       <c r="K542" s="4"/>
     </row>
-    <row r="543" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E543" s="5">
+        <v>3</v>
+      </c>
+      <c r="F543" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G543" s="12" t="s">
+        <v>453</v>
+      </c>
       <c r="J543" s="4"/>
       <c r="K543" s="4"/>
     </row>
-    <row r="544" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E544" s="5">
+        <v>4</v>
+      </c>
+      <c r="F544" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="G544" s="12" t="s">
+        <v>265</v>
+      </c>
       <c r="J544" s="4"/>
       <c r="K544" s="4"/>
     </row>
-    <row r="545" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E545" s="5">
+        <v>5</v>
+      </c>
+      <c r="F545" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="G545" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J545" s="4"/>
       <c r="K545" s="4"/>
     </row>
-    <row r="546" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J546" s="4"/>
       <c r="K546" s="4"/>
     </row>
-    <row r="547" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A547" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B547" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C547" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D547" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="F547" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G547" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H547" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="J547" s="4"/>
       <c r="K547" s="4"/>
     </row>
-    <row r="548" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E548" s="5">
+        <v>1</v>
+      </c>
+      <c r="F548" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G548" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="J548" s="4"/>
       <c r="K548" s="4"/>
     </row>
-    <row r="549" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E549" s="5">
+        <v>2</v>
+      </c>
+      <c r="F549" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G549" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J549" s="4"/>
       <c r="K549" s="4"/>
     </row>
-    <row r="550" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E550" s="5">
+        <v>3</v>
+      </c>
+      <c r="F550" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G550" s="12" t="s">
+        <v>460</v>
+      </c>
       <c r="J550" s="4"/>
       <c r="K550" s="4"/>
     </row>
-    <row r="551" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E551" s="5">
+        <v>4</v>
+      </c>
+      <c r="F551" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G551" s="12" t="s">
+        <v>265</v>
+      </c>
       <c r="H551" s="13"/>
       <c r="J551" s="4"/>
       <c r="K551" s="4"/>
     </row>
-    <row r="552" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E552" s="5">
+        <v>5</v>
+      </c>
+      <c r="F552" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="G552" s="12" t="s">
+        <v>463</v>
+      </c>
       <c r="H552" s="16"/>
       <c r="J552" s="4"/>
       <c r="K552" s="4"/>
     </row>
-    <row r="553" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J553" s="4"/>
       <c r="K553" s="4"/>
     </row>
-    <row r="554" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A554" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B554" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D554" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F554" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G554" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H554" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="J554" s="4"/>
       <c r="K554" s="4"/>
     </row>
-    <row r="555" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E555" s="5">
+        <v>1</v>
+      </c>
+      <c r="F555" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G555" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="J555" s="4"/>
       <c r="K555" s="4"/>
     </row>
-    <row r="556" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E556" s="5">
+        <v>2</v>
+      </c>
+      <c r="F556" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G556" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J556" s="4"/>
       <c r="K556" s="4"/>
     </row>
-    <row r="557" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E557" s="5">
+        <v>3</v>
+      </c>
+      <c r="F557" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G557" s="12" t="s">
+        <v>467</v>
+      </c>
       <c r="J557" s="4"/>
       <c r="K557" s="4"/>
     </row>
-    <row r="558" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E558" s="5">
+        <v>4</v>
+      </c>
+      <c r="F558" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G558" s="12" t="s">
+        <v>469</v>
+      </c>
       <c r="J558" s="4"/>
       <c r="K558" s="4"/>
     </row>
-    <row r="559" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E559" s="5">
+        <v>5</v>
+      </c>
+      <c r="F559" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="G559" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="J559" s="4"/>
       <c r="K559" s="4"/>
     </row>
-    <row r="560" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E560" s="5">
+        <v>6</v>
+      </c>
+      <c r="F560" s="12" t="s">
+        <v>471</v>
+      </c>
       <c r="J560" s="4"/>
       <c r="K560" s="4"/>
     </row>
@@ -9851,7 +10370,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C649:C718" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B641 B630 B619 B608 B598 B70 B579 B79 B99 B115 B125 B89 B562 B550 B539 B526 B516 B367 B327 B338 B467 B349 B443 B278 B358 B397 B295 B376 B386 B305 B320 B316" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B641 B630 B619 B608 B598 B70 B579 B79 B99 B115 B125 B89 B562 B320 B539 B316 B516 B367 B327 B338 B467 B349 B443 B278 B358 B397 B295 B376 B386 B305" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7 K9:K15 K17:K26 K28:K722" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -9922,8 +10441,14 @@
     <hyperlink ref="H498" r:id="rId58" xr:uid="{FC42E0AE-8B51-490F-9B02-9D460872BA0D}"/>
     <hyperlink ref="H505" r:id="rId59" xr:uid="{FDBABF3D-F5EC-4420-B27F-5CB8DC4B5A09}"/>
     <hyperlink ref="H512" r:id="rId60" xr:uid="{C94E0F17-0716-4FB1-A04F-A1D42E298228}"/>
+    <hyperlink ref="H520" r:id="rId61" xr:uid="{0338B4B1-FA6F-44FA-A3A1-8765DE324247}"/>
+    <hyperlink ref="H526" r:id="rId62" xr:uid="{A43C8204-C05F-4DB7-9F6C-F31BE8CE6A1A}"/>
+    <hyperlink ref="H533" r:id="rId63" xr:uid="{0EDB4B72-A590-4701-BDEC-CFB45E4C7DED}"/>
+    <hyperlink ref="H540" r:id="rId64" xr:uid="{1BBC11D3-64A3-42D4-AF80-0BFF116A8F6B}"/>
+    <hyperlink ref="H547" r:id="rId65" xr:uid="{92CC3C40-30BF-4562-97F1-E40BBB12CF7E}"/>
+    <hyperlink ref="H554" r:id="rId66" xr:uid="{C0844AE3-EF8D-4D97-B59B-327EB61A24CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>